--- a/thesis/Behavioral/Behavioral Report_by subj_eng.xlsx
+++ b/thesis/Behavioral/Behavioral Report_by subj_eng.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchaowang/Documents/GitHub/RStudio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchaowang/Documents/GitHub/RStudio/thesis/Behavioral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034DEFB3-F224-2E40-9E96-C3C2E49A3AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D80273-0C20-7A42-AEA6-7F8A1BF66285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="27200" windowHeight="16540" activeTab="2" xr2:uid="{BBF6A79F-0604-2444-8222-04FDF78C5CAC}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="27200" windowHeight="16540" activeTab="3" xr2:uid="{BBF6A79F-0604-2444-8222-04FDF78C5CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="FMRI group" sheetId="2" r:id="rId1"/>
     <sheet name="rater group" sheetId="3" r:id="rId2"/>
     <sheet name="Results" sheetId="1" r:id="rId3"/>
+    <sheet name="FMRI PCA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="62">
   <si>
     <t xml:space="preserve">fMRI Group </t>
   </si>
@@ -200,6 +201,27 @@
   </si>
   <si>
     <t>Convert above to fmri group scale</t>
+  </si>
+  <si>
+    <t>PC1(wellwritten+ofhighlitqual)</t>
+  </si>
+  <si>
+    <t>PC3(thrilling+interesting+fascinating+beautiful)</t>
+  </si>
+  <si>
+    <t>PC2(easytounderstand+accessible)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>MeancenteredPC3</t>
+  </si>
+  <si>
+    <t>MeancenteredPC1</t>
   </si>
 </sst>
 </file>
@@ -19558,7 +19580,7 @@
         <v>3.72</v>
       </c>
       <c r="BG62">
-        <f t="shared" ref="BG61:BG92" si="8">BG3*0.07</f>
+        <f t="shared" ref="BG62:BG92" si="8">BG3*0.07</f>
         <v>5.95</v>
       </c>
     </row>
@@ -29867,7 +29889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF46D5-6E29-C147-AE45-FE272179D4E2}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -31118,4 +31140,5988 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA3B350-0413-D14F-BAEE-7CB755AEC00E}">
+  <dimension ref="A1:BF56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AO53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:58" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2">
+        <f>AVERAGE(D2,E2)</f>
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <f>AVERAGE(F2,G2)</f>
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <f>AVERAGE(C2,H2,I2,J2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(P2,Q2)</f>
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <f>AVERAGE(R2,S2)</f>
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <f>AVERAGE(O2,T2,U2,V2)</f>
+        <v>1.75</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2">
+        <f>AF2-$AF$55</f>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ2">
+        <f>AH2-$AH$55</f>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA53" si="0">AVERAGE(D3,E3)</f>
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB53" si="1">AVERAGE(F3,G3)</f>
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC53" si="2">AVERAGE(C3,H3,I3,J3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF53" si="3">AVERAGE(P3,Q3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG53" si="4">AVERAGE(R3,S3)</f>
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH53" si="5">AVERAGE(O3,T3,U3,V3)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AO53" si="6">AF3-$AF$55</f>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ53" si="7">AH3-$AH$55</f>
+        <v>-0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="5"/>
+        <v>2.75</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="7"/>
+        <v>0.73076923076923084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="6"/>
+        <v>2.0288461538461537</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="6"/>
+        <v>2.0288461538461537</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="7"/>
+        <v>1.4807692307692308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="7"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="7"/>
+        <v>-0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="7"/>
+        <v>-0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="7"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="7"/>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="7"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="7"/>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF35">
+        <f>AVERAGE(P35,Q35)</f>
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="6"/>
+        <v>1.0288461538461537</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="7"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="6"/>
+        <v>-0.97115384615384626</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="7"/>
+        <v>-0.51923076923076916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="5"/>
+        <v>2.75</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="7"/>
+        <v>0.73076923076923084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="6"/>
+        <v>0.52884615384615374</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="7"/>
+        <v>-0.51923076923076916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="7"/>
+        <v>-0.51923076923076916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="7"/>
+        <v>-0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>4</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="7"/>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>4</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="7"/>
+        <v>-0.51923076923076916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>53</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="7"/>
+        <v>-0.26923076923076916</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="X50">
+        <v>4</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="6"/>
+        <v>-0.47115384615384626</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="7"/>
+        <v>-1.0192307692307692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>53</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO51">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" si="7"/>
+        <v>0.48076923076923084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="7"/>
+        <v>-1.9230769230769162E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>53</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="6"/>
+        <v>2.8846153846153744E-2</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="7"/>
+        <v>1.7307692307692308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="Z55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA55">
+        <f>AVERAGE(AA2:AA53)</f>
+        <v>2.1470588235294117</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" ref="AB55:AH55" si="8">AVERAGE(AB2:AB53)</f>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="8"/>
+        <v>2.3186274509803924</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="8"/>
+        <v>1.9711538461538463</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="8"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="8"/>
+        <v>2.0192307692307692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="Z56" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA56">
+        <f>STDEV(AA2:AA53)</f>
+        <v>0.8443584407528526</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" ref="AB56:AH56" si="9">STDEV(AB2:AB53)</f>
+        <v>0.86772183127462443</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="9"/>
+        <v>0.72124619820930247</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="9"/>
+        <v>0.65986823951022899</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="9"/>
+        <v>0.88220209872025646</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="9"/>
+        <v>0.69811748590959244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>